--- a/Excel/RoleDialogDatas.xlsx
+++ b/Excel/RoleDialogDatas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15220"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
   <si>
     <t>对话数据的id</t>
   </si>
@@ -1258,10 +1267,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1275,107 +1284,107 @@
     <col min="7" max="7" width="27.5576923076923" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="133" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" ht="133" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="34.4" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    <row r="3" ht="34.4" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" ht="54" customHeight="1" spans="1:7">
-      <c r="A3" s="2">
-        <v>10001</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>10001</v>
-      </c>
-      <c r="D3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="54" customHeight="1" spans="1:7">
       <c r="A4" s="2">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>1001</v>
+        <v>10001</v>
       </c>
       <c r="D4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <v>-1</v>
       </c>
       <c r="F4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="54" customHeight="1" spans="1:7">
       <c r="A5" s="2">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>1101</v>
+        <v>1001</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>1</v>
@@ -1387,18 +1396,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="54" customHeight="1" spans="1:7">
       <c r="A6" s="2">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>1201</v>
+        <v>1101</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>1</v>
@@ -1410,41 +1419,41 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" ht="54" customHeight="1" spans="1:7">
       <c r="A7" s="2">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>10101</v>
+        <v>1201</v>
       </c>
       <c r="D7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
         <v>-1</v>
       </c>
       <c r="F7" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="54" customHeight="1" spans="1:7">
       <c r="A8" s="2">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>10201</v>
+        <v>10101</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>0</v>
@@ -1456,22 +1465,36 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="9" ht="34.4" spans="1:7">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
+    <row r="9" ht="54" customHeight="1" spans="1:7">
+      <c r="A9" s="2">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10201</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" ht="34.4" spans="1:7">
       <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1479,8 +1502,8 @@
     </row>
     <row r="11" ht="34.4" spans="1:7">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1506,12 +1529,21 @@
     </row>
     <row r="14" ht="34.4" spans="1:7">
       <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
+    </row>
+    <row r="15" ht="34.4" spans="1:7">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/RoleDialogDatas.xlsx
+++ b/Excel/RoleDialogDatas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140"/>
+    <workbookView windowHeight="15220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>int</t>
   </si>
@@ -59,6 +59,9 @@
     <t>为对话添加的描述</t>
   </si>
   <si>
+    <t>这个对话是否触发过</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -78,6 +81,9 @@
   </si>
   <si>
     <t>dialogDes</t>
+  </si>
+  <si>
+    <t>isTrigger</t>
   </si>
   <si>
     <t>主角第一天进入场景触发的剧情对话</t>
@@ -1267,13 +1273,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19.5480769230769" customWidth="1"/>
     <col min="2" max="2" width="31.4134615384615" customWidth="1"/>
@@ -1281,10 +1287,10 @@
     <col min="4" max="4" width="39.5769230769231" customWidth="1"/>
     <col min="5" max="5" width="37.8173076923077" customWidth="1"/>
     <col min="6" max="6" width="29.9615384615385" customWidth="1"/>
-    <col min="7" max="7" width="27.5576923076923" customWidth="1"/>
+    <col min="7" max="8" width="27.5576923076923" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1306,8 +1312,11 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" ht="133" customHeight="1" spans="1:7">
+    <row r="2" ht="133" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1329,31 +1338,37 @@
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" ht="34.4" spans="1:7">
+    <row r="3" ht="34.4" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" ht="54" customHeight="1" spans="1:7">
+    <row r="4" ht="54" customHeight="1" spans="1:8">
       <c r="A4" s="2">
         <v>10001</v>
       </c>
@@ -1373,10 +1388,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" ht="54" customHeight="1" spans="1:7">
+    <row r="5" ht="54" customHeight="1" spans="1:8">
       <c r="A5" s="2">
         <v>10002</v>
       </c>
@@ -1396,10 +1414,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" ht="54" customHeight="1" spans="1:7">
+    <row r="6" ht="54" customHeight="1" spans="1:8">
       <c r="A6" s="2">
         <v>10003</v>
       </c>
@@ -1419,10 +1440,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" ht="54" customHeight="1" spans="1:7">
+    <row r="7" ht="54" customHeight="1" spans="1:8">
       <c r="A7" s="2">
         <v>10004</v>
       </c>
@@ -1442,10 +1466,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" ht="54" customHeight="1" spans="1:7">
+    <row r="8" ht="54" customHeight="1" spans="1:8">
       <c r="A8" s="2">
         <v>10005</v>
       </c>
@@ -1465,10 +1492,13 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" ht="54" customHeight="1" spans="1:7">
+    <row r="9" ht="54" customHeight="1" spans="1:8">
       <c r="A9" s="2">
         <v>10006</v>
       </c>
@@ -1482,16 +1512,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>-1</v>
+        <v>10005</v>
       </c>
       <c r="F9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" ht="34.4" spans="1:7">
+    <row r="10" ht="34.4" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1499,8 +1532,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
-    <row r="11" ht="34.4" spans="1:7">
+    <row r="11" ht="34.4" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1508,8 +1542,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
-    <row r="12" ht="34.4" spans="1:7">
+    <row r="12" ht="34.4" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1517,8 +1552,9 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
-    <row r="13" ht="34.4" spans="1:7">
+    <row r="13" ht="34.4" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1526,8 +1562,9 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
-    <row r="14" ht="34.4" spans="1:7">
+    <row r="14" ht="34.4" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1535,8 +1572,9 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
-    <row r="15" ht="34.4" spans="1:7">
+    <row r="15" ht="34.4" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1544,6 +1582,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/RoleDialogDatas.xlsx
+++ b/Excel/RoleDialogDatas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15220"/>
+    <workbookView windowWidth="21000" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>int</t>
   </si>
@@ -62,6 +62,9 @@
     <t>这个对话是否触发过</t>
   </si>
   <si>
+    <t>这个对话是否已经解锁</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -84,6 +87,9 @@
   </si>
   <si>
     <t>isTrigger</t>
+  </si>
+  <si>
+    <t>isLocked</t>
   </si>
   <si>
     <t>主角第一天进入场景触发的剧情对话</t>
@@ -1273,24 +1279,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.5480769230769" customWidth="1"/>
-    <col min="2" max="2" width="31.4134615384615" customWidth="1"/>
-    <col min="3" max="3" width="23.3942307692308" customWidth="1"/>
-    <col min="4" max="4" width="39.5769230769231" customWidth="1"/>
-    <col min="5" max="5" width="37.8173076923077" customWidth="1"/>
-    <col min="6" max="6" width="29.9615384615385" customWidth="1"/>
-    <col min="7" max="8" width="27.5576923076923" customWidth="1"/>
+    <col min="1" max="1" width="19.5462962962963" customWidth="1"/>
+    <col min="2" max="2" width="31.4166666666667" customWidth="1"/>
+    <col min="3" max="3" width="23.3981481481481" customWidth="1"/>
+    <col min="4" max="4" width="39.5740740740741" customWidth="1"/>
+    <col min="5" max="5" width="37.8148148148148" customWidth="1"/>
+    <col min="6" max="6" width="29.962962962963" customWidth="1"/>
+    <col min="7" max="9" width="27.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1315,8 +1321,11 @@
       <c r="H1" t="s">
         <v>1</v>
       </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" ht="133" customHeight="1" spans="1:8">
+    <row r="2" ht="133" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1341,34 +1350,40 @@
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" ht="34.4" spans="1:8">
+    <row r="3" ht="30" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" ht="54" customHeight="1" spans="1:8">
+    <row r="4" ht="54" customHeight="1" spans="1:9">
       <c r="A4" s="2">
         <v>10001</v>
       </c>
@@ -1388,13 +1403,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="I4" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" ht="54" customHeight="1" spans="1:8">
+    <row r="5" ht="54" customHeight="1" spans="1:9">
       <c r="A5" s="2">
         <v>10002</v>
       </c>
@@ -1414,13 +1432,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="I5" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" ht="54" customHeight="1" spans="1:8">
+    <row r="6" ht="54" customHeight="1" spans="1:9">
       <c r="A6" s="2">
         <v>10003</v>
       </c>
@@ -1440,13 +1461,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="I6" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" ht="54" customHeight="1" spans="1:8">
+    <row r="7" ht="54" customHeight="1" spans="1:9">
       <c r="A7" s="2">
         <v>10004</v>
       </c>
@@ -1466,13 +1490,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="I7" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" ht="54" customHeight="1" spans="1:8">
+    <row r="8" ht="54" customHeight="1" spans="1:9">
       <c r="A8" s="2">
         <v>10005</v>
       </c>
@@ -1486,19 +1513,22 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>-1</v>
+        <v>10004</v>
       </c>
       <c r="F8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="I8" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" ht="54" customHeight="1" spans="1:8">
+    <row r="9" ht="54" customHeight="1" spans="1:9">
       <c r="A9" s="2">
         <v>10006</v>
       </c>
@@ -1518,13 +1548,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" ht="34.4" spans="1:8">
+    <row r="10" ht="30" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1533,8 +1566,9 @@
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
-    <row r="11" ht="34.4" spans="1:8">
+    <row r="11" ht="30" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1543,8 +1577,9 @@
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
-    <row r="12" ht="34.4" spans="1:8">
+    <row r="12" ht="30" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1553,8 +1588,9 @@
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
-    <row r="13" ht="34.4" spans="1:8">
+    <row r="13" ht="30" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1563,8 +1599,9 @@
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
-    <row r="14" ht="34.4" spans="1:8">
+    <row r="14" ht="30" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1573,8 +1610,9 @@
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
-    <row r="15" ht="34.4" spans="1:8">
+    <row r="15" ht="30" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1583,6 +1621,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/RoleDialogDatas.xlsx
+++ b/Excel/RoleDialogDatas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>int</t>
   </si>
@@ -41,7 +41,7 @@
     <t>对话数据的id</t>
   </si>
   <si>
-    <t>对话主体的类型：0代表主角，1代表Mom，2代表Bob，3代表God，4代表TV，5代表相框，6代表桌子</t>
+    <t>对话主体的类型：0代表主角，1代表Mom，2代表Bob，3代表God，4代表TV，5代表相框，6代表桌子，7代表猫，8代表狗，9代表炸鸡店，10代表糖果店，11代表花店，12代表路人甲，13代表路人乙，14代表路人丙，15代表路人丁，16代表David‘Mom</t>
   </si>
   <si>
     <t>对话数据的开始id</t>
@@ -62,7 +62,7 @@
     <t>这个对话是否触发过</t>
   </si>
   <si>
-    <t>这个对话是否已经解锁</t>
+    <t>这个对话是否被锁定</t>
   </si>
   <si>
     <t>id</t>
@@ -108,6 +108,96 @@
   </si>
   <si>
     <t>玩家和Bob在与院子里的剧情对话</t>
+  </si>
+  <si>
+    <t>交互对话：猫</t>
+  </si>
+  <si>
+    <t>交互对话：狗</t>
+  </si>
+  <si>
+    <t>交互对话：炸鸡店</t>
+  </si>
+  <si>
+    <t>交互对话：糖果店</t>
+  </si>
+  <si>
+    <t>交互对话：花店</t>
+  </si>
+  <si>
+    <t>在进入葬礼时的对话</t>
+  </si>
+  <si>
+    <t>葬礼上两个路人NPC的对话</t>
+  </si>
+  <si>
+    <t>游戏提醒玩家回家睡觉的对话</t>
+  </si>
+  <si>
+    <t>迈克在床边时触发的对话</t>
+  </si>
+  <si>
+    <t>妈妈提醒迈克喝牛奶的对话</t>
+  </si>
+  <si>
+    <t>迈克第一日进入梦世界的自白</t>
+  </si>
+  <si>
+    <t>迈克重回现实世界的自白</t>
+  </si>
+  <si>
+    <t>迈克在首次离开梦世界后，与鲍勃的分享梦世界的对话</t>
+  </si>
+  <si>
+    <t>迈克尝试在白天喝牛奶，遭到妈妈的制止</t>
+  </si>
+  <si>
+    <t>在被制止后，两人商量给猫来一瓶牛奶试试</t>
+  </si>
+  <si>
+    <t>猫喝完牛奶后呼呼大睡</t>
+  </si>
+  <si>
+    <t>在猫睡着后，两人拿走了猫的铃铛</t>
+  </si>
+  <si>
+    <t>充满疑问的迈克闻讯了路人甲关于牛奶的问题，但只能得到摸棱两可的回答</t>
+  </si>
+  <si>
+    <t>交互对话：路人乙</t>
+  </si>
+  <si>
+    <t>交互对话：路人丙</t>
+  </si>
+  <si>
+    <t>交互对话：路人丁</t>
+  </si>
+  <si>
+    <t>旁白提醒玩家该回家了</t>
+  </si>
+  <si>
+    <t>妈妈再一次提醒迈克喝牛奶</t>
+  </si>
+  <si>
+    <t>鲍勃家视角：鲍勃妈妈提醒鲍勃喝牛奶</t>
+  </si>
+  <si>
+    <t>鲍勃未喝牛奶难入眠，出门遭遇了怪物</t>
+  </si>
+  <si>
+    <t>迈克再次进入“梦世界”</t>
+  </si>
+  <si>
+    <t>迈克艰难逃脱后</t>
+  </si>
+  <si>
+    <t>迈克听到有人敲门</t>
+  </si>
+  <si>
+    <t>门外的鲍勃在求助</t>
+  </si>
+  <si>
+    <t>迈克兽性大发，吃掉了朋友，游戏结束</t>
   </si>
 </sst>
 </file>
@@ -120,7 +210,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,14 +219,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="24"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="24"/>
-      <color rgb="FF000000"/>
+      <color theme="5"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -611,147 +715,159 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1279,349 +1395,1217 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.22222222222222" defaultRowHeight="30.6"/>
   <cols>
-    <col min="1" max="1" width="19.5462962962963" customWidth="1"/>
-    <col min="2" max="2" width="31.4166666666667" customWidth="1"/>
-    <col min="3" max="3" width="23.3981481481481" customWidth="1"/>
-    <col min="4" max="4" width="39.5740740740741" customWidth="1"/>
-    <col min="5" max="5" width="37.8148148148148" customWidth="1"/>
-    <col min="6" max="6" width="29.962962962963" customWidth="1"/>
-    <col min="7" max="9" width="27.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="19.5555555555556" style="2" customWidth="1"/>
+    <col min="2" max="2" width="58.9814814814815" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.4444444444444" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.5555555555556" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.7777777777778" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30" style="2" customWidth="1"/>
+    <col min="7" max="9" width="27.5555555555556" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.22222222222222" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" ht="133" customHeight="1" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="297" customHeight="1" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="30" spans="1:9">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="54" customHeight="1" spans="1:9">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>10001</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
         <v>10001</v>
       </c>
-      <c r="D4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <v>-1</v>
       </c>
-      <c r="F4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="b">
+      <c r="H4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="54" customHeight="1" spans="1:9">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>10002</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>1001</v>
       </c>
-      <c r="D5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
         <v>-1</v>
       </c>
-      <c r="F5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="b">
+      <c r="H5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="54" customHeight="1" spans="1:9">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>10003</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>1101</v>
       </c>
-      <c r="D6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
         <v>-1</v>
       </c>
-      <c r="F6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="b">
+      <c r="H6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="54" customHeight="1" spans="1:9">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>10004</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>1201</v>
       </c>
-      <c r="D7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
         <v>-1</v>
       </c>
-      <c r="F7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="b">
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="54" customHeight="1" spans="1:9">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>10005</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
         <v>10101</v>
       </c>
-      <c r="D8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10004</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="D8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="b">
-        <v>1</v>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="54" customHeight="1" spans="1:9">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>10006</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
         <v>10201</v>
       </c>
-      <c r="D9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
         <v>10005</v>
       </c>
-      <c r="F9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="30" spans="1:9">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" ht="30" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" ht="30" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" ht="30" spans="1:9">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" ht="30" spans="1:9">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" ht="30" spans="1:9">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="A10" s="5">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="5">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1301</v>
+      </c>
+      <c r="D10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="A11" s="5">
+        <v>10008</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1401</v>
+      </c>
+      <c r="D11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="A12" s="5">
+        <v>10009</v>
+      </c>
+      <c r="B12" s="5">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1501</v>
+      </c>
+      <c r="D12" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="A13" s="5">
+        <v>10010</v>
+      </c>
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1601</v>
+      </c>
+      <c r="D13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="A14" s="5">
+        <v>10011</v>
+      </c>
+      <c r="B14" s="5">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1701</v>
+      </c>
+      <c r="D14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="60" spans="1:9">
+      <c r="A15" s="4">
+        <v>10012</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>10301</v>
+      </c>
+      <c r="D15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10006</v>
+      </c>
+      <c r="F15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="90" spans="1:9">
+      <c r="A16" s="5">
+        <v>10013</v>
+      </c>
+      <c r="B16" s="5">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
+        <v>10401</v>
+      </c>
+      <c r="D16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10012</v>
+      </c>
+      <c r="F16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="90" spans="1:9">
+      <c r="A17" s="4">
+        <v>10014</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>10501</v>
+      </c>
+      <c r="D17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="90" spans="1:9">
+      <c r="A18" s="4">
+        <v>10015</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1801</v>
+      </c>
+      <c r="D18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="90" spans="1:9">
+      <c r="A19" s="4">
+        <v>10016</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>10601</v>
+      </c>
+      <c r="D19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10015</v>
+      </c>
+      <c r="F19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="90" spans="1:9">
+      <c r="A20" s="4">
+        <v>10017</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>10701</v>
+      </c>
+      <c r="D20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="90" spans="1:9">
+      <c r="A21" s="4">
+        <v>10018</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>10801</v>
+      </c>
+      <c r="D21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="150" spans="1:9">
+      <c r="A22" s="4">
+        <v>10019</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>10901</v>
+      </c>
+      <c r="D22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>10018</v>
+      </c>
+      <c r="F22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="120" spans="1:9">
+      <c r="A23" s="4">
+        <v>10020</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>11001</v>
+      </c>
+      <c r="D23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>10019</v>
+      </c>
+      <c r="F23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="120" spans="1:9">
+      <c r="A24" s="4">
+        <v>10021</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>11101</v>
+      </c>
+      <c r="D24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>10020</v>
+      </c>
+      <c r="F24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="A25" s="5">
+        <v>10022</v>
+      </c>
+      <c r="B25" s="5">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1901</v>
+      </c>
+      <c r="D25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>10021</v>
+      </c>
+      <c r="F25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="120" spans="1:9">
+      <c r="A26" s="4">
+        <v>10023</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4">
+        <v>11201</v>
+      </c>
+      <c r="D26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>10022</v>
+      </c>
+      <c r="F26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="210" spans="1:9">
+      <c r="A27" s="4">
+        <v>10024</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>11301</v>
+      </c>
+      <c r="D27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>10023</v>
+      </c>
+      <c r="F27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="A28" s="5">
+        <v>10025</v>
+      </c>
+      <c r="B28" s="5">
+        <v>13</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2001</v>
+      </c>
+      <c r="D28" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="A29" s="5">
+        <v>10026</v>
+      </c>
+      <c r="B29" s="5">
+        <v>14</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2101</v>
+      </c>
+      <c r="D29" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="A30" s="5">
+        <v>10027</v>
+      </c>
+      <c r="B30" s="5">
+        <v>15</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2201</v>
+      </c>
+      <c r="D30" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="A31" s="5">
+        <v>10028</v>
+      </c>
+      <c r="B31" s="5">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2301</v>
+      </c>
+      <c r="D31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="90" spans="1:9">
+      <c r="A32" s="4">
+        <v>10029</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>11401</v>
+      </c>
+      <c r="D32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="120" spans="1:9">
+      <c r="A33" s="4">
+        <v>10030</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4">
+        <v>11501</v>
+      </c>
+      <c r="D33" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>10029</v>
+      </c>
+      <c r="F33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="120" spans="1:9">
+      <c r="A34" s="4">
+        <v>10031</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4">
+        <v>11601</v>
+      </c>
+      <c r="D34" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>10030</v>
+      </c>
+      <c r="F34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="60" spans="1:9">
+      <c r="A35" s="4">
+        <v>10032</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2401</v>
+      </c>
+      <c r="D35" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>10031</v>
+      </c>
+      <c r="F35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="60" spans="1:9">
+      <c r="A36" s="4">
+        <v>10033</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4">
+        <v>11701</v>
+      </c>
+      <c r="D36" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="60" spans="1:9">
+      <c r="A37" s="4">
+        <v>10034</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2501</v>
+      </c>
+      <c r="D37" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>10033</v>
+      </c>
+      <c r="F37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="60" spans="1:9">
+      <c r="A38" s="4">
+        <v>10035</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2601</v>
+      </c>
+      <c r="D38" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>10034</v>
+      </c>
+      <c r="F38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" ht="120" spans="1:9">
+      <c r="A39" s="4">
+        <v>10036</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>11801</v>
+      </c>
+      <c r="D39" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>10035</v>
+      </c>
+      <c r="F39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/RoleDialogDatas.xlsx
+++ b/Excel/RoleDialogDatas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12780"/>
+    <workbookView windowHeight="15060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>这个对话是否需要前置数据才能解锁，如果没有，填-1，有，填对应的id</t>
   </si>
   <si>
-    <t>是否是剧情对话,true表示是剧情对话，由剧情系统驱动，false表示有玩家交互驱动</t>
+    <t>是否是剧情对话,1表示是剧情对话，由剧情系统驱动，0表示有玩家交互驱动</t>
   </si>
   <si>
     <t>为对话添加的描述</t>
@@ -80,7 +80,7 @@
     <t>preRoleDialogs</t>
   </si>
   <si>
-    <t>isPlotDialog</t>
+    <t>dialogPlayType</t>
   </si>
   <si>
     <t>dialogDes</t>
@@ -864,11 +864,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1398,19 +1398,19 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22222222222222" defaultRowHeight="30.6"/>
+  <sheetFormatPr defaultColWidth="9.22115384615385" defaultRowHeight="34.4"/>
   <cols>
-    <col min="1" max="1" width="19.5555555555556" style="2" customWidth="1"/>
-    <col min="2" max="2" width="58.9814814814815" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.4444444444444" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.5555555555556" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.7777777777778" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30" style="2" customWidth="1"/>
-    <col min="7" max="9" width="27.5555555555556" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.22222222222222" style="2"/>
+    <col min="1" max="1" width="19.5576923076923" style="2" customWidth="1"/>
+    <col min="2" max="2" width="58.9807692307692" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.4423076923077" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.5576923076923" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.7788461538462" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.25" style="2" customWidth="1"/>
+    <col min="7" max="9" width="27.5576923076923" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.22115384615385" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -1516,7 +1516,7 @@
       <c r="E4" s="4">
         <v>-1</v>
       </c>
-      <c r="F4" s="4" t="b">
+      <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -1545,7 +1545,7 @@
       <c r="E5" s="4">
         <v>-1</v>
       </c>
-      <c r="F5" s="4" t="b">
+      <c r="F5" s="4">
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1574,7 +1574,7 @@
       <c r="E6" s="4">
         <v>-1</v>
       </c>
-      <c r="F6" s="4" t="b">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -1603,7 +1603,7 @@
       <c r="E7" s="4">
         <v>-1</v>
       </c>
-      <c r="F7" s="4" t="b">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -1632,7 +1632,7 @@
       <c r="E8" s="4">
         <v>-1</v>
       </c>
-      <c r="F8" s="4" t="b">
+      <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -1661,7 +1661,7 @@
       <c r="E9" s="4">
         <v>10005</v>
       </c>
-      <c r="F9" s="4" t="b">
+      <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="60" spans="1:9">
+    <row r="10" s="1" customFormat="1" ht="69" spans="1:9">
       <c r="A10" s="5">
         <v>10007</v>
       </c>
@@ -1690,20 +1690,20 @@
       <c r="E10" s="5">
         <v>-1</v>
       </c>
-      <c r="F10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="H10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="69" spans="1:9">
       <c r="A11" s="5">
         <v>10008</v>
       </c>
@@ -1719,20 +1719,20 @@
       <c r="E11" s="5">
         <v>-1</v>
       </c>
-      <c r="F11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="H11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="69" spans="1:9">
       <c r="A12" s="5">
         <v>10009</v>
       </c>
@@ -1748,20 +1748,20 @@
       <c r="E12" s="5">
         <v>-1</v>
       </c>
-      <c r="F12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="H12" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="69" spans="1:9">
       <c r="A13" s="5">
         <v>10010</v>
       </c>
@@ -1777,20 +1777,20 @@
       <c r="E13" s="5">
         <v>-1</v>
       </c>
-      <c r="F13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="H13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="69" spans="1:9">
       <c r="A14" s="5">
         <v>10011</v>
       </c>
@@ -1806,24 +1806,24 @@
       <c r="E14" s="5">
         <v>-1</v>
       </c>
-      <c r="F14" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="60" spans="1:9">
+      <c r="H14" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="69" spans="1:9">
       <c r="A15" s="4">
         <v>10012</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
       <c r="C15" s="4">
@@ -1835,7 +1835,7 @@
       <c r="E15" s="4">
         <v>10006</v>
       </c>
-      <c r="F15" s="4" t="b">
+      <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -1848,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="90" spans="1:9">
+    <row r="16" s="1" customFormat="1" ht="104" spans="1:9">
       <c r="A16" s="5">
         <v>10013</v>
       </c>
@@ -1864,20 +1864,20 @@
       <c r="E16" s="5">
         <v>10012</v>
       </c>
-      <c r="F16" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="90" spans="1:9">
+      <c r="H16" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="104" spans="1:9">
       <c r="A17" s="4">
         <v>10014</v>
       </c>
@@ -1893,7 +1893,7 @@
       <c r="E17" s="4">
         <v>-1</v>
       </c>
-      <c r="F17" s="4" t="b">
+      <c r="F17" s="4">
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="90" spans="1:9">
+    <row r="18" ht="104" spans="1:9">
       <c r="A18" s="4">
         <v>10015</v>
       </c>
@@ -1922,7 +1922,7 @@
       <c r="E18" s="4">
         <v>-1</v>
       </c>
-      <c r="F18" s="4" t="b">
+      <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="90" spans="1:9">
+    <row r="19" ht="104" spans="1:9">
       <c r="A19" s="4">
         <v>10016</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="E19" s="4">
         <v>10015</v>
       </c>
-      <c r="F19" s="4" t="b">
+      <c r="F19" s="4">
         <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="90" spans="1:9">
+    <row r="20" ht="104" spans="1:9">
       <c r="A20" s="4">
         <v>10017</v>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="E20" s="4">
         <v>-1</v>
       </c>
-      <c r="F20" s="4" t="b">
+      <c r="F20" s="4">
         <v>1</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="90" spans="1:9">
+    <row r="21" ht="104" spans="1:9">
       <c r="A21" s="4">
         <v>10018</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="E21" s="4">
         <v>-1</v>
       </c>
-      <c r="F21" s="4" t="b">
+      <c r="F21" s="4">
         <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="150" spans="1:9">
+    <row r="22" ht="172" spans="1:9">
       <c r="A22" s="4">
         <v>10019</v>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="E22" s="4">
         <v>10018</v>
       </c>
-      <c r="F22" s="4" t="b">
+      <c r="F22" s="4">
         <v>1</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -2051,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="120" spans="1:9">
+    <row r="23" ht="138" spans="1:9">
       <c r="A23" s="4">
         <v>10020</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="E23" s="4">
         <v>10019</v>
       </c>
-      <c r="F23" s="4" t="b">
+      <c r="F23" s="4">
         <v>1</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="120" spans="1:9">
+    <row r="24" ht="138" spans="1:9">
       <c r="A24" s="4">
         <v>10021</v>
       </c>
@@ -2096,7 +2096,7 @@
       <c r="E24" s="4">
         <v>10020</v>
       </c>
-      <c r="F24" s="4" t="b">
+      <c r="F24" s="4">
         <v>1</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -2109,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="60" spans="1:9">
+    <row r="25" s="1" customFormat="1" ht="69" spans="1:9">
       <c r="A25" s="5">
         <v>10022</v>
       </c>
@@ -2125,20 +2125,20 @@
       <c r="E25" s="5">
         <v>10021</v>
       </c>
-      <c r="F25" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" ht="120" spans="1:9">
+      <c r="H25" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="138" spans="1:9">
       <c r="A26" s="4">
         <v>10023</v>
       </c>
@@ -2154,7 +2154,7 @@
       <c r="E26" s="4">
         <v>10022</v>
       </c>
-      <c r="F26" s="4" t="b">
+      <c r="F26" s="4">
         <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -2167,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="210" spans="1:9">
+    <row r="27" ht="241" spans="1:9">
       <c r="A27" s="4">
         <v>10024</v>
       </c>
@@ -2183,7 +2183,7 @@
       <c r="E27" s="4">
         <v>10023</v>
       </c>
-      <c r="F27" s="4" t="b">
+      <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -2196,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="60" spans="1:9">
+    <row r="28" s="1" customFormat="1" ht="69" spans="1:9">
       <c r="A28" s="5">
         <v>10025</v>
       </c>
@@ -2212,20 +2212,20 @@
       <c r="E28" s="5">
         <v>-1</v>
       </c>
-      <c r="F28" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="H28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="69" spans="1:9">
       <c r="A29" s="5">
         <v>10026</v>
       </c>
@@ -2241,20 +2241,20 @@
       <c r="E29" s="5">
         <v>-1</v>
       </c>
-      <c r="F29" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="H29" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="69" spans="1:9">
       <c r="A30" s="5">
         <v>10027</v>
       </c>
@@ -2270,20 +2270,20 @@
       <c r="E30" s="5">
         <v>-1</v>
       </c>
-      <c r="F30" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="H30" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="69" spans="1:9">
       <c r="A31" s="5">
         <v>10028</v>
       </c>
@@ -2299,20 +2299,20 @@
       <c r="E31" s="5">
         <v>-1</v>
       </c>
-      <c r="F31" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6" t="s">
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H31" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="90" spans="1:9">
+      <c r="H31" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="104" spans="1:9">
       <c r="A32" s="4">
         <v>10029</v>
       </c>
@@ -2328,7 +2328,7 @@
       <c r="E32" s="4">
         <v>-1</v>
       </c>
-      <c r="F32" s="4" t="b">
+      <c r="F32" s="4">
         <v>1</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="120" spans="1:9">
+    <row r="33" ht="138" spans="1:9">
       <c r="A33" s="4">
         <v>10030</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="E33" s="4">
         <v>10029</v>
       </c>
-      <c r="F33" s="4" t="b">
+      <c r="F33" s="4">
         <v>1</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -2370,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="120" spans="1:9">
+    <row r="34" ht="138" spans="1:9">
       <c r="A34" s="4">
         <v>10031</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="E34" s="4">
         <v>10030</v>
       </c>
-      <c r="F34" s="4" t="b">
+      <c r="F34" s="4">
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" ht="60" spans="1:9">
+    <row r="35" ht="69" spans="1:9">
       <c r="A35" s="4">
         <v>10032</v>
       </c>
@@ -2415,7 +2415,7 @@
       <c r="E35" s="4">
         <v>10031</v>
       </c>
-      <c r="F35" s="4" t="b">
+      <c r="F35" s="4">
         <v>1</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="60" spans="1:9">
+    <row r="36" ht="69" spans="1:9">
       <c r="A36" s="4">
         <v>10033</v>
       </c>
@@ -2444,7 +2444,7 @@
       <c r="E36" s="4">
         <v>-1</v>
       </c>
-      <c r="F36" s="4" t="b">
+      <c r="F36" s="4">
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -2457,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="60" spans="1:9">
+    <row r="37" ht="69" spans="1:9">
       <c r="A37" s="4">
         <v>10034</v>
       </c>
@@ -2473,7 +2473,7 @@
       <c r="E37" s="4">
         <v>10033</v>
       </c>
-      <c r="F37" s="4" t="b">
+      <c r="F37" s="4">
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="60" spans="1:9">
+    <row r="38" ht="69" spans="1:9">
       <c r="A38" s="4">
         <v>10035</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="E38" s="4">
         <v>10034</v>
       </c>
-      <c r="F38" s="4" t="b">
+      <c r="F38" s="4">
         <v>1</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="120" spans="1:9">
+    <row r="39" ht="138" spans="1:9">
       <c r="A39" s="4">
         <v>10036</v>
       </c>
@@ -2531,7 +2531,7 @@
       <c r="E39" s="4">
         <v>10035</v>
       </c>
-      <c r="F39" s="4" t="b">
+      <c r="F39" s="4">
         <v>1</v>
       </c>
       <c r="G39" s="3" t="s">

--- a/Excel/RoleDialogDatas.xlsx
+++ b/Excel/RoleDialogDatas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15060"/>
+    <workbookView windowWidth="21000" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -864,11 +864,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1397,20 +1397,20 @@
   <sheetPr/>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.22115384615385" defaultRowHeight="34.4"/>
+  <sheetFormatPr defaultColWidth="9.22222222222222" defaultRowHeight="30.6"/>
   <cols>
-    <col min="1" max="1" width="19.5576923076923" style="2" customWidth="1"/>
-    <col min="2" max="2" width="58.9807692307692" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.4423076923077" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.5576923076923" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.7788461538462" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.5555555555556" style="2" customWidth="1"/>
+    <col min="2" max="2" width="58.9814814814815" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.4444444444444" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.5555555555556" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.7777777777778" style="2" customWidth="1"/>
     <col min="6" max="6" width="35.25" style="2" customWidth="1"/>
-    <col min="7" max="9" width="27.5576923076923" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.22115384615385" style="2"/>
+    <col min="7" max="9" width="27.5555555555556" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.22222222222222" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="69" spans="1:9">
+    <row r="10" s="1" customFormat="1" ht="60" spans="1:9">
       <c r="A10" s="5">
         <v>10007</v>
       </c>
@@ -1693,17 +1693,17 @@
       <c r="F10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="69" spans="1:9">
+      <c r="H10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="60" spans="1:9">
       <c r="A11" s="5">
         <v>10008</v>
       </c>
@@ -1722,17 +1722,17 @@
       <c r="F11" s="5">
         <v>0</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="69" spans="1:9">
+      <c r="H11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="60" spans="1:9">
       <c r="A12" s="5">
         <v>10009</v>
       </c>
@@ -1751,17 +1751,17 @@
       <c r="F12" s="5">
         <v>0</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="69" spans="1:9">
+      <c r="H12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="60" spans="1:9">
       <c r="A13" s="5">
         <v>10010</v>
       </c>
@@ -1780,17 +1780,17 @@
       <c r="F13" s="5">
         <v>0</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="69" spans="1:9">
+      <c r="H13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="60" spans="1:9">
       <c r="A14" s="5">
         <v>10011</v>
       </c>
@@ -1809,21 +1809,21 @@
       <c r="F14" s="5">
         <v>0</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="69" spans="1:9">
+      <c r="H14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="60" spans="1:9">
       <c r="A15" s="4">
         <v>10012</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="7">
         <v>2</v>
       </c>
       <c r="C15" s="4">
@@ -1848,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="104" spans="1:9">
+    <row r="16" s="1" customFormat="1" ht="90" spans="1:9">
       <c r="A16" s="5">
         <v>10013</v>
       </c>
@@ -1867,17 +1867,17 @@
       <c r="F16" s="5">
         <v>0</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="104" spans="1:9">
+      <c r="H16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="90" spans="1:9">
       <c r="A17" s="4">
         <v>10014</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="104" spans="1:9">
+    <row r="18" ht="90" spans="1:9">
       <c r="A18" s="4">
         <v>10015</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="4">
-        <v>-1</v>
+        <v>10014</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1932,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="104" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="90" spans="1:9">
       <c r="A19" s="4">
         <v>10016</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="104" spans="1:9">
+    <row r="20" ht="90" spans="1:9">
       <c r="A20" s="4">
         <v>10017</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="104" spans="1:9">
+    <row r="21" ht="90" spans="1:9">
       <c r="A21" s="4">
         <v>10018</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="172" spans="1:9">
+    <row r="22" ht="150" spans="1:9">
       <c r="A22" s="4">
         <v>10019</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="138" spans="1:9">
+    <row r="23" ht="120" spans="1:9">
       <c r="A23" s="4">
         <v>10020</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="138" spans="1:9">
+    <row r="24" ht="120" spans="1:9">
       <c r="A24" s="4">
         <v>10021</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="69" spans="1:9">
+    <row r="25" s="1" customFormat="1" ht="60" spans="1:9">
       <c r="A25" s="5">
         <v>10022</v>
       </c>
@@ -2128,17 +2128,17 @@
       <c r="F25" s="5">
         <v>0</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" ht="138" spans="1:9">
+      <c r="H25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="120" spans="1:9">
       <c r="A26" s="4">
         <v>10023</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="241" spans="1:9">
+    <row r="27" ht="210" spans="1:9">
       <c r="A27" s="4">
         <v>10024</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="69" spans="1:9">
+    <row r="28" s="1" customFormat="1" ht="60" spans="1:9">
       <c r="A28" s="5">
         <v>10025</v>
       </c>
@@ -2215,17 +2215,17 @@
       <c r="F28" s="5">
         <v>0</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="69" spans="1:9">
+      <c r="H28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="60" spans="1:9">
       <c r="A29" s="5">
         <v>10026</v>
       </c>
@@ -2244,17 +2244,17 @@
       <c r="F29" s="5">
         <v>0</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="69" spans="1:9">
+      <c r="H29" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="60" spans="1:9">
       <c r="A30" s="5">
         <v>10027</v>
       </c>
@@ -2273,17 +2273,17 @@
       <c r="F30" s="5">
         <v>0</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="69" spans="1:9">
+      <c r="H30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="60" spans="1:9">
       <c r="A31" s="5">
         <v>10028</v>
       </c>
@@ -2302,17 +2302,17 @@
       <c r="F31" s="5">
         <v>0</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H31" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="104" spans="1:9">
+      <c r="H31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="90" spans="1:9">
       <c r="A32" s="4">
         <v>10029</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="138" spans="1:9">
+    <row r="33" ht="120" spans="1:9">
       <c r="A33" s="4">
         <v>10030</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="138" spans="1:9">
+    <row r="34" ht="120" spans="1:9">
       <c r="A34" s="4">
         <v>10031</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" ht="69" spans="1:9">
+    <row r="35" ht="60" spans="1:9">
       <c r="A35" s="4">
         <v>10032</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="69" spans="1:9">
+    <row r="36" ht="60" spans="1:9">
       <c r="A36" s="4">
         <v>10033</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="69" spans="1:9">
+    <row r="37" ht="60" spans="1:9">
       <c r="A37" s="4">
         <v>10034</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="69" spans="1:9">
+    <row r="38" ht="60" spans="1:9">
       <c r="A38" s="4">
         <v>10035</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="138" spans="1:9">
+    <row r="39" ht="120" spans="1:9">
       <c r="A39" s="4">
         <v>10036</v>
       </c>
